--- a/logs/rooseBERT_large_cont_seed42.xlsx
+++ b/logs/rooseBERT_large_cont_seed42.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/RooseBERT/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4676B52-36BD-854B-83BC-5069ABC76E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A21A159-B187-6F45-9482-989A502DCCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argument detection" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="sentiment analysis" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'argument detection'!$C$1:$C$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ner!$C$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'argument detection'!$C$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ner!$C$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'relation classification'!$C$1:$C$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sentiment analysis'!$C$1:$C$55</definedName>
   </definedNames>
@@ -245,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +262,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri (Corpo)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -305,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -317,6 +324,8 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -619,11 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -680,2067 +688,2061 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>16</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>256</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.47361763449843192</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.43184872788599271</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.6310545199254769</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.57001559681901914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>256</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.4727638674867588</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.43092732494461022</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.62796425440277803</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.56826336159588198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>256</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.4711497991932318</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.42947941486935359</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.62482580899164752</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.56726457399103136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>256</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.47069190435434061</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.42879658577714891</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.623564584776506</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.56757016963947604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>256</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.47044634077501019</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.4284634807532372</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.61948994057446705</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.5704777247899564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>256</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.46963268467260633</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.42848224273970847</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.622439898397118</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.56656247392507109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>256</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.46847080873082703</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.42835628758029909</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.62603748159899808</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.56586928196866515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>256</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.46797407774851429</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.42716173109216632</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.62028125729402039</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.56543282777389103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>256</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.46755342066512051</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.4265640398408278</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.62129298308018843</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.56787195823264114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E11" s="7">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F11" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G2" s="1">
-        <v>256</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.32500954089707362</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.23281772839895559</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.53879882079642849</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.56244603738730603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="G11" s="7">
+        <v>256</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.46735987960271502</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.42674236364450102</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.61551827980889551</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.57008180302658273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>256</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.46734651621451828</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.42691995859069137</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.62473126059999518</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.56523385600862641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>16</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>256</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.46725025111551322</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.4258295731394342</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.61747205032272556</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.57103811013039374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>16</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.46634655218504278</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.42683638371712301</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.62470186830195185</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.56428392629058866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>256</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.46630398570110659</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.4256403941263513</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.61646281716053064</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.57101872552693811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E16" s="7">
+        <v>8</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.46605565137051919</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.42579625873016208</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.61328026373921996</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.5689122652847598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>256</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.46566089088758422</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.4250993242259799</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.61220551974245763</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.56573965185252195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7">
+        <v>32</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>256</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.46477431585558449</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.42507368217063679</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.61692556018581968</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.5651054871278105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>256</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.46469789469964962</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.42428694961029051</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.62008861891130973</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.56274991816483844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>256</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.46466334237234369</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.42581785803657263</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.61220246331735584</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.56733268720996655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>256</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.46460218353195698</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.42482096008946008</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.61466714860546778</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.56250601729128824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>32</v>
+      </c>
+      <c r="F22" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>256</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.46367874816353483</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.42378855220613931</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.61502181494201957</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.56446364272373095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>32</v>
+      </c>
+      <c r="F23" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G23" s="7">
+        <v>256</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.46356100456935762</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.42295091575905219</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.6138755289574096</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.56553288274899527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7">
+        <v>32</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>256</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.46222801268798719</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.42250675406409882</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.60844773387724893</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.56718703557720884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>8</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>256</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.46193594929660098</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.42280609187189627</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.61086137854968237</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.56676703583567023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>32</v>
+      </c>
+      <c r="F26" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>256</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.46185012573364892</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.42358421557135589</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.60986249098497658</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.56495780617981162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7">
         <v>16</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F27" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G27" s="7">
+        <v>256</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.46109668213413552</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.42156705599575689</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.6161482784187271</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.5628965766790297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G28" s="7">
+        <v>256</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.46082218580062351</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.42114743171776731</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.60921456611971658</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.5664469419323368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>16</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>256</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.46073222415220733</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.42235465783380183</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.61738927570638036</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.55984878145839889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G30" s="7">
+        <v>256</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.46049162256175968</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.42269868690069962</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.61226993307466471</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.56395658564450801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7">
+        <v>16</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G31" s="7">
+        <v>256</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.45963826793124429</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.42024445628049972</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.61429663554100877</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.56049288585053181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>8</v>
+      </c>
+      <c r="F32" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G3" s="1">
-        <v>256</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.31788834183652781</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.22638278909131421</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.53433737315316265</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.56047828444069636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="G32" s="7">
+        <v>256</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.45893203787526121</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.42221138916678957</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.6103084630881932</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.55943319419495741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>32</v>
+      </c>
+      <c r="F33" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G33" s="7">
+        <v>256</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.45893000143500678</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.42056071478425527</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.60994241614912126</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.56271140750059367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
+        <v>8</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G34" s="7">
+        <v>256</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.45631495703417618</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.42031159025397302</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.60485870879733161</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.55914917105795214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7">
+        <v>16</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>256</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.45546605028132081</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.41779797371354788</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.60193682437905571</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.56188857729933706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7">
+        <v>8</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G36" s="7">
+        <v>256</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.45544444489177488</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.41937069431103352</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.60356335992463761</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.55969165557436584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>16</v>
+      </c>
+      <c r="F37" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G37" s="7">
+        <v>256</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.45536597415714858</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.41879940408388722</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.59869143158443949</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.55889042529819977</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>32</v>
+      </c>
+      <c r="F38" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G38" s="7">
+        <v>256</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.4548415462794882</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.41893775734155247</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.60627621416571964</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.55550349484278017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7">
+        <v>16</v>
+      </c>
+      <c r="F39" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G39" s="7">
+        <v>256</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.4546209502990064</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.41830143677703252</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.60324369668902478</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.5539309760527853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>16</v>
+      </c>
+      <c r="F40" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G40" s="7">
+        <v>256</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.45452710197881191</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.41872183790869982</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.60986069763614181</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.55235203881874961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>16</v>
+      </c>
+      <c r="F41" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G41" s="7">
+        <v>256</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.45326541343837262</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.41824395796670533</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.59849258170787945</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.55785011824608111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7">
+        <v>16</v>
+      </c>
+      <c r="F42" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G42" s="7">
+        <v>256</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.45282594249862329</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.41837770929596291</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.60491935498908211</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.55342391897356247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E43" s="7">
+        <v>32</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>256</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0.45189765963206552</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0.41607619548896702</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.59939492888197876</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.55825073338416409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>32</v>
+      </c>
+      <c r="F44" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G44" s="7">
+        <v>256</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.45187392304742191</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.41493565056343568</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.59372332643548809</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.56075134722994013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5">
+      <c r="B45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7">
+        <v>8</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G45" s="7">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.4514938594554197</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.4160068632482764</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.60050557225317258</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.55599565784882599</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3</v>
+      </c>
+      <c r="E46" s="7">
+        <v>32</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G46" s="7">
+        <v>256</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.451163451933143</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0.41519674296205428</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.59864017118067492</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0.55723647473379501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7">
+        <v>32</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G47" s="7">
+        <v>256</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.4508491220674527</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.41448496459740791</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.60170839686111732</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0.55533019685367868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7">
+        <v>32</v>
+      </c>
+      <c r="F48" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G48" s="7">
+        <v>256</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.45066058778862478</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0.41632175759260193</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0.60209340957283508</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.55094919941587728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2</v>
+      </c>
+      <c r="E49" s="7">
+        <v>16</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G49" s="7">
+        <v>256</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.44870518651023139</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0.4145778788647817</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0.59483527497087796</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0.55449012031377209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7">
+        <v>32</v>
+      </c>
+      <c r="F50" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G4" s="1">
-        <v>256</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.31721803290047912</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.22632216635171409</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.53116724782394642</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.56333955785796042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="G50" s="7">
+        <v>256</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.44804510580665807</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0.41519089024225853</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.60328924898755942</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.5479554046508045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="7">
+        <v>3</v>
+      </c>
+      <c r="E51" s="7">
         <v>32</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F51" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G51" s="7">
+        <v>256</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.44548948984270192</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0.41122225013662289</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.58809430041017074</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.5540571975032631</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2</v>
+      </c>
+      <c r="E52" s="7">
+        <v>32</v>
+      </c>
+      <c r="F52" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G52" s="7">
+        <v>256</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.44394358128571892</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0.4118876917463018</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.59307847854743889</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.54712397100063326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
+      <c r="E53" s="7">
+        <v>32</v>
+      </c>
+      <c r="F53" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G53" s="7">
+        <v>256</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0.4344189149655267</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0.40415618218967908</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.58060788825697185</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.54273012755069072</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7">
+        <v>32</v>
+      </c>
+      <c r="F54" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G54" s="7">
+        <v>256</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0.4332082067888362</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0.40435631240252279</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0.57487553092406118</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.54018266891740108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="7">
+        <v>3</v>
+      </c>
+      <c r="E55" s="7">
+        <v>8</v>
+      </c>
+      <c r="F55" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G5" s="1">
-        <v>256</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.3171775407995403</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.22594147537621981</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.53227125745068327</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.5640573861012389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>256</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.31673789037786121</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.22439478030100191</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.54158520904932383</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.57160713079232095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>256</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.31063615095619818</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.2185698208774032</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.5373219782609735</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.57163608636482088</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>256</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.3078218121874754</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.21839109401736909</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.52144775081377959</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.55696443989317912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>256</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.30630658713019349</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.21694784705401141</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.5223553360515083</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.56986979644232527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>256</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.30599279506411042</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.21664107542463151</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.52113675797886327</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.57125483799357191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>256</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.30586569718271139</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.2156815298712455</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.52639301487985701</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.57104249712857236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>256</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.30275407565910761</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.21343366281744011</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.52144775081377959</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.56016203843141976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>256</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.30060746723647469</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.21182085882258439</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.51771927235443982</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.56013693954179467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>32</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>256</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.29947214708534242</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.21002477606251191</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.52204613568249925</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.57026069667107437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>16</v>
-      </c>
-      <c r="F15" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>256</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.29861751529769648</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.21094234753529759</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.51112807646898561</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.55851053149408669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>16</v>
-      </c>
-      <c r="F16" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>256</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.29837674779258128</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.20921859015545699</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.52083487684564234</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.57561747758356097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>32</v>
-      </c>
-      <c r="F17" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>256</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.29524761804650329</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.2070444821250805</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.51526941957563965</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.56311366785133421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>256</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.29046935970428739</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.20256745417693331</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.51326693641286947</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.56995666315982507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>256</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.28988123998797971</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.2017433873694329</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.51479650732043081</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.56983118901232543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>32</v>
-      </c>
-      <c r="F20" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>256</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.28457822166124608</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.19739106097447931</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.50998224263774505</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.57355680600731607</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>256</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.28401089289647119</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.20020241416205911</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.48911734198815537</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.56555541613983606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>32</v>
-      </c>
-      <c r="F22" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>256</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.28094637917411358</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.19556694041497169</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.49890958323972678</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.5576621890247575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>16</v>
-      </c>
-      <c r="F23" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G23" s="1">
-        <v>256</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.28069335553874308</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.19484204828477369</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.50197783675654484</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.55507198361544485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>32</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G24" s="1">
-        <v>256</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.27907333339252199</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.1935298795435732</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.50055193012728894</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.56993735944482515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>256</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.27801710117119999</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.19458372532760099</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.48700029037947701</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.56138581369984653</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>32</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>256</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.2776831890808833</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.1929689263819663</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.49515929644518158</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.55767222858060761</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>32</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G27" s="1">
-        <v>256</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.27759787990389528</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.19170306616275309</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.50342375925509897</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.57053094868107368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G28" s="1">
-        <v>256</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.27418447848857291</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.19135208564436901</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.48403570114096428</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.55182920707587901</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>16</v>
-      </c>
-      <c r="F29" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G29" s="1">
-        <v>256</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.26787290970736438</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.1851974361153132</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.48429396560377419</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.56475913789608811</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <v>16</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>256</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.26600962274855849</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.18407723108279059</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.47943055748079683</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.54963054434471814</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>32</v>
-      </c>
-      <c r="F31" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G31" s="1">
-        <v>256</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.2628577847510567</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.18093750408298559</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.48053456710753362</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0.56429584873608929</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>32</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G32" s="1">
-        <v>256</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.25721007630739012</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.1762150554621561</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.47618589544426859</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.55322972511696078</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>32</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G33" s="1">
-        <v>256</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.25711310316588859</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.1758797901069013</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.47802466672083899</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.5668535909735829</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>16</v>
-      </c>
-      <c r="F34" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G34" s="1">
-        <v>256</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.25381684445928249</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.17434201234184291</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.46672466289691172</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0.56515003812483711</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>16</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G35" s="1">
-        <v>256</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.25274697905037169</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.1725342769566556</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.47235554517253081</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0.54581049334377452</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>32</v>
-      </c>
-      <c r="F36" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G36" s="1">
-        <v>256</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.25259801773763357</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.1729174303240982</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.46863617841488647</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.56274672560734318</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>32</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G37" s="1">
-        <v>256</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.24988861268544221</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.17068101588075299</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.46632270241719997</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0.55067465815312333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>32</v>
-      </c>
-      <c r="F38" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G38" s="1">
-        <v>256</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.24544942427492561</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.16646457218049751</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.4670665757687289</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0.5470102202678554</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>32</v>
-      </c>
-      <c r="F39" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G39" s="1">
-        <v>256</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.23588303767994559</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.15909057487760109</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.45614851655521521</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0.55974499792485066</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>32</v>
-      </c>
-      <c r="F40" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>256</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.22646995471771439</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.15354336493634579</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0.43190078462207648</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0.55758187257795711</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>8</v>
-      </c>
-      <c r="F41" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G41" s="1">
-        <v>256</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0.70648354516796175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>8</v>
-      </c>
-      <c r="F42" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G42" s="1">
-        <v>256</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0.70648354516796175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>8</v>
-      </c>
-      <c r="F43" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G43" s="1">
-        <v>256</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0.70648354516796175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>32</v>
-      </c>
-      <c r="F44" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G44" s="1">
-        <v>256</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0.70648354516796175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4</v>
-      </c>
-      <c r="E45" s="1">
-        <v>8</v>
-      </c>
-      <c r="F45" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G45" s="1">
-        <v>256</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0.70648354516796175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>16</v>
-      </c>
-      <c r="F46" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G46" s="1">
-        <v>256</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.70648354516796175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1">
-        <v>8</v>
-      </c>
-      <c r="F47" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G47" s="1">
-        <v>256</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0.70648354516796175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1">
-        <v>4</v>
-      </c>
-      <c r="E48" s="1">
-        <v>8</v>
-      </c>
-      <c r="F48" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G48" s="1">
-        <v>256</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0.70648354516796175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="1">
-        <v>4</v>
-      </c>
-      <c r="E49" s="1">
-        <v>8</v>
-      </c>
-      <c r="F49" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G49" s="1">
-        <v>256</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0.71496617023946263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="1">
-        <v>4</v>
-      </c>
-      <c r="E50" s="1">
-        <v>8</v>
-      </c>
-      <c r="F50" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G50" s="1">
-        <v>256</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0.71496617023946263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1">
-        <v>8</v>
-      </c>
-      <c r="F51" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G51" s="1">
-        <v>256</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0.71496617023946263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1">
-        <v>32</v>
-      </c>
-      <c r="F52" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G52" s="1">
-        <v>256</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0.71496617023946263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>8</v>
-      </c>
-      <c r="F53" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G53" s="1">
-        <v>256</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0.71496617023946263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>16</v>
-      </c>
-      <c r="F54" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G54" s="1">
-        <v>256</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0.71496617023946263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1">
-        <v>16</v>
-      </c>
-      <c r="F55" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G55" s="1">
-        <v>256</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0.71496617023946263</v>
+      <c r="G55" s="7">
+        <v>256</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.1689602149735015</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0.1462607099934092</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.73130354996704616</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="uncased"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
-    <sortCondition descending="1" ref="I1:I56"/>
+  <autoFilter ref="C1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
+    <sortCondition descending="1" ref="I1:I55"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4877,11 +4879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4937,2066 +4938,2060 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G2" s="1">
-        <v>256</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.4760017579252187</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.44035921352207491</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.54150800386640241</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.8657643114367316</v>
+      <c r="G2" s="7">
+        <v>256</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.5528220904974287</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.63829042703435623</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.59596120157836563</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.86438833260774928</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>8</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G3" s="1">
-        <v>256</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.47275082779922051</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.45103967893272412</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.53608974091827877</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.86424234636512576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="7">
+        <v>256</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.53964449796866709</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.6062837672153405</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.57695108412359664</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.86411664579118086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G4" s="1">
-        <v>256</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.4200260289909859</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.4135118275670992</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.49315183916425481</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.85486775114864022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="7">
+        <v>256</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.49851888058001048</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.57774959658615865</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.55134388508951038</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.85689408545307544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G5" s="1">
-        <v>256</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.40332012479931473</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.4221431041207297</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.4875219259013604</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.85455730783558925</v>
+      <c r="G5" s="7">
+        <v>256</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.47133769218834992</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.51767155409663512</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.53417737141679078</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.85387772871447232</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>256</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.46206525671327281</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.47342300927062092</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.52383327635025057</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.85258695442720878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="7">
         <v>8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F7" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G6" s="1">
-        <v>256</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.38558690747350721</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.43247581689972658</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.46942978561367082</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.85184233351537153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G7" s="7">
+        <v>256</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.4611299278578132</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.5238330487079309</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.51986448271789398</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.85046728971962615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="7">
         <v>16</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G7" s="1">
-        <v>256</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.37277897685540851</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.32740734152915851</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.4710508567541164</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.85272569228858808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="G8" s="7">
+        <v>256</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.45465041350960661</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.46002594010795378</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.52241086952319948</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.85142110827787798</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="7">
         <v>8</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>256</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.45054587623413672</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.41120111825244188</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.51651790954416388</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.84852913738416569</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>256</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.44925136024764872</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.40948233347928031</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.5143233679554452</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.84650786740468931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G8" s="1">
-        <v>256</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.36956585365487921</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.32962727633853622</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.46608421687383511</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.85155321404478135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="G11" s="7">
+        <v>256</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.44679202680961572</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.46323324031249841</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.51257987974081654</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.8465389638659121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E12" s="7">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F12" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G9" s="1">
-        <v>256</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.36131629619717831</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.38960048217362381</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.45674129057657947</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.84744129268527735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="G12" s="7">
+        <v>256</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.4413363793646744</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.39969626464984409</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.50459123047527299</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.84452580531200827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>256</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.42044718872275483</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.39523534001302152</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.48556478423283739</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.83900183061952016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E14" s="7">
+        <v>16</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.41695499870462871</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.41423578531836042</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.4857544359810701</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.8386093662541203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
         <v>8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F15" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G10" s="1">
-        <v>256</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.35388529521193529</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.28913927106234749</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.46019931656683849</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.84875201788153487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="G15" s="7">
+        <v>256</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.41483593203440328</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.39262001743154901</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.47946704195811007</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.83938722420271705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="7">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E16" s="7">
+        <v>16</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.41391689581952401</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.4045862255715385</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.47988806841082421</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.83577958828285337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
         <v>8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F17" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>256</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.41044936769771723</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.4013073721640068</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.47847411538945039</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.83434499148922503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>256</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.39407508121095292</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.38783317913032089</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.45841535143779599</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.82772906831101267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>16</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>256</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.37466445271359189</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.3493284434160297</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.42656790029233421</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.81260237017053671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G11" s="1">
-        <v>256</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.34584942540119962</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.2813541663288297</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.45252886744249909</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.8460822053892959</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="G20" s="7">
+        <v>256</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.37102583187997201</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.41693889680421042</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.4275226897824787</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.81737048323900741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="7">
+        <v>32</v>
+      </c>
+      <c r="F21" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>256</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.34974010084725338</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.36169215058557419</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.41267024187949097</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.81242614590459605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E22" s="7">
         <v>8</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F22" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>256</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.3256361351055953</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.35358919779482051</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.37062555560328792</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.78918970999132865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G12" s="1">
-        <v>256</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.33602970311792829</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.27633401931753848</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.43441942598062749</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.84095216678981011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="G23" s="7">
+        <v>256</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.30076503958125839</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.34342673417295572</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.35502868628723938</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.78080104484109714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4</v>
+      </c>
+      <c r="E24" s="7">
+        <v>32</v>
+      </c>
+      <c r="F24" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>256</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.30059955074837202</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.33315267412358279</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.33721628164379269</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.77136525676847478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7">
+        <v>16</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>256</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.27302304139477818</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.2750577840025144</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.32283666283603379</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.76780272405000316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>16</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>256</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.27076562565074319</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.27420342809005482</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.32726034682800442</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.76976180110703407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E27" s="7">
         <v>8</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F27" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G27" s="7">
+        <v>256</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.25870884897608332</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.34775090821784982</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.29966817435288712</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.75643125541959721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7">
+        <v>32</v>
+      </c>
+      <c r="F28" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G13" s="1">
-        <v>256</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.33400475665775892</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.27126383312076607</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.43881495381070601</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.84409536818576925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="G28" s="7">
+        <v>256</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.24516551125595801</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.25421934130753249</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.28829729198290849</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.74945581192860256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>16</v>
+      </c>
+      <c r="F29" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>256</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.24281924049498779</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.26002840812274469</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.29200890418637959</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.75125940667951985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>16</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G30" s="7">
+        <v>256</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.21537286459705171</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.37561444030960678</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.25303114064206289</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.73834987314127887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7">
         <v>4</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E31" s="7">
+        <v>16</v>
+      </c>
+      <c r="F31" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G31" s="7">
+        <v>256</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.21241727809968841</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.32715398299128479</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.25220185164937942</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.73992356360599931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>32</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G32" s="7">
+        <v>256</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.1877877266248261</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.25509959689013728</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.2153600374096773</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.71441010013060513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>16</v>
+      </c>
+      <c r="F33" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G33" s="7">
+        <v>256</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.1785022944767572</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.27570306013282397</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.23013446905409049</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.72598516234704691</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7">
         <v>8</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F34" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G14" s="1">
-        <v>256</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.33375247018894999</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.27434276650635508</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.43256054806376448</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.84059879854797781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="G34" s="7">
+        <v>256</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.16513554293723129</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.26542892270528429</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.20367047254163839</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.70934137695130295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E35" s="7">
+        <v>32</v>
+      </c>
+      <c r="F35" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>256</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.15588379089941029</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.29466519726375678</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.20004002897540629</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.71419854192761023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5">
+      <c r="B36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7">
+        <v>8</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G36" s="7">
+        <v>256</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.1413054975237345</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.1847491701489376</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.1851671301439512</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.70160901820984678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7">
+        <v>32</v>
+      </c>
+      <c r="F37" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G37" s="7">
+        <v>256</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.1397952721495449</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.20027343311235901</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.17459379469656089</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.69097857854000067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7">
+        <v>16</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G38" s="7">
+        <v>256</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.13194744534062269</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.23116445701573671</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.15809197991517249</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.66334971080291061</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7">
+        <v>16</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G39" s="7">
+        <v>256</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.11536458509002601</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.14493599218096639</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.13955121347457211</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.65433407200436777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>16</v>
+      </c>
+      <c r="F40" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G40" s="7">
+        <v>256</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.10063947669171359</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.20223088121021671</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.12677267519459501</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.62998320791093976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>16</v>
+      </c>
+      <c r="F41" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G41" s="7">
+        <v>256</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="7">
+        <v>7.854669915657557E-2</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.156582386407638</v>
+      </c>
+      <c r="K41" s="7">
+        <v>8.3495605946471457E-2</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.60686642900729038</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7">
+        <v>32</v>
+      </c>
+      <c r="F42" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G15" s="1">
-        <v>256</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.33033705716537243</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.26734860977176639</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.43708912346143752</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.83816590090649445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="G42" s="7">
+        <v>256</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="7">
+        <v>6.8212535258285301E-2</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.1035141199438149</v>
+      </c>
+      <c r="K42" s="7">
+        <v>9.6732458744676356E-2</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.60044156974936247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="7">
+        <v>3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>32</v>
+      </c>
+      <c r="F43" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>256</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="7">
+        <v>6.7566295320375877E-2</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0.1041634528246986</v>
+      </c>
+      <c r="K43" s="7">
+        <v>8.7216302896169051E-2</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.5944710491946017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="7">
         <v>4</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E44" s="7">
+        <v>32</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G44" s="7">
+        <v>256</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="7">
+        <v>5.4365689485707358E-2</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.1000542802202696</v>
+      </c>
+      <c r="K44" s="7">
+        <v>6.5467862598310264E-2</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.57994900180359477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7">
+        <v>3</v>
+      </c>
+      <c r="E45" s="7">
+        <v>32</v>
+      </c>
+      <c r="F45" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G45" s="7">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="7">
+        <v>4.8043800813007527E-2</v>
+      </c>
+      <c r="J45" s="7">
+        <v>5.3389145606158962E-2</v>
+      </c>
+      <c r="K45" s="7">
+        <v>5.8307307232601427E-2</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.58669749815332239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7">
+        <v>32</v>
+      </c>
+      <c r="F46" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G46" s="7">
+        <v>256</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I46" s="7">
+        <v>4.3028741524481211E-2</v>
+      </c>
+      <c r="J46" s="7">
+        <v>5.7397149378527107E-2</v>
+      </c>
+      <c r="K46" s="7">
+        <v>5.4898392403821938E-2</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0.58457783344573977</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7">
+        <v>32</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G47" s="7">
+        <v>256</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I47" s="7">
+        <v>4.2049665016811733E-2</v>
+      </c>
+      <c r="J47" s="7">
+        <v>4.8686508293157738E-2</v>
+      </c>
+      <c r="K47" s="7">
+        <v>5.4381890157037163E-2</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0.58425667212640908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7">
+        <v>32</v>
+      </c>
+      <c r="F48" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G48" s="7">
+        <v>256</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I48" s="7">
+        <v>3.8776780480930313E-2</v>
+      </c>
+      <c r="J48" s="7">
+        <v>3.0696260837081619E-2</v>
+      </c>
+      <c r="K48" s="7">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.58322895590455082</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3</v>
+      </c>
+      <c r="E49" s="7">
+        <v>32</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G49" s="7">
+        <v>256</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I49" s="7">
+        <v>3.8776780480930313E-2</v>
+      </c>
+      <c r="J49" s="7">
+        <v>3.0696260837081619E-2</v>
+      </c>
+      <c r="K49" s="7">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0.58322895590455082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7">
         <v>16</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F50" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G50" s="7">
+        <v>256</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I50" s="7">
+        <v>3.8776780480930313E-2</v>
+      </c>
+      <c r="J50" s="7">
+        <v>3.0696260837081619E-2</v>
+      </c>
+      <c r="K50" s="7">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.58322895590455082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2</v>
+      </c>
+      <c r="E51" s="7">
+        <v>32</v>
+      </c>
+      <c r="F51" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G51" s="7">
+        <v>256</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I51" s="7">
+        <v>3.8776780480930313E-2</v>
+      </c>
+      <c r="J51" s="7">
+        <v>3.0696260837081619E-2</v>
+      </c>
+      <c r="K51" s="7">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.58322895590455082</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2</v>
+      </c>
+      <c r="E52" s="7">
+        <v>16</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G52" s="7">
+        <v>256</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I52" s="7">
+        <v>3.8268231784361249E-2</v>
+      </c>
+      <c r="J52" s="7">
+        <v>3.0063731378948019E-2</v>
+      </c>
+      <c r="K52" s="7">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.57121089620001242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
+      <c r="E53" s="7">
+        <v>32</v>
+      </c>
+      <c r="F53" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G16" s="1">
-        <v>256</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.31721176229217402</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.25531181886950127</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.42301142176562762</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.83847634421954553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="G53" s="7">
+        <v>256</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I53" s="7">
+        <v>3.8268231784361249E-2</v>
+      </c>
+      <c r="J53" s="7">
+        <v>3.0063731378948019E-2</v>
+      </c>
+      <c r="K53" s="7">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.57121089620001242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7">
+        <v>32</v>
+      </c>
+      <c r="F54" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G54" s="7">
+        <v>256</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I54" s="7">
+        <v>3.8268231784361249E-2</v>
+      </c>
+      <c r="J54" s="7">
+        <v>3.0063731378948019E-2</v>
+      </c>
+      <c r="K54" s="7">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.57121089620001242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="7">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
-        <v>16</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>256</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.31496451541919762</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.25205569004808992</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.42255246491455267</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.83044749269170226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>256</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.30701173324696401</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.248125699001738</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.41142240527640639</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.83218220951524302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>256</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.29879893952957393</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.23841058155738709</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.40329539723678659</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.80937389572424423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E55" s="7">
+        <v>32</v>
+      </c>
+      <c r="F55" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G20" s="1">
-        <v>256</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.2849757249233496</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.2307819993826688</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.37837784670807761</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.79620289761958307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>256</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.25979960121837192</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.2101724450116714</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.34641713260578599</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.81587607102943005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>32</v>
-      </c>
-      <c r="F22" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>256</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.25466679891355531</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.2059931898758392</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.33685300350300112</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.8144169874580901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>32</v>
-      </c>
-      <c r="F23" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G23" s="1">
-        <v>256</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.2403070429569677</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.19611004987925079</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.33040783811654428</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.77625365414886438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G24" s="1">
-        <v>256</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.2334254463261842</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.19238459350229281</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.31317820362404108</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.78346578914690179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
-        <v>16</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>256</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.2245880559717274</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.18484520214839381</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.30061252980173991</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.77430771141189614</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>16</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>256</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.2104265668813895</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.16983179665642761</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.29103705495037591</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.77561157332671049</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G27" s="1">
-        <v>256</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.20364568698905811</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.17002407130419561</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.2952135479868474</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.75511580841016412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>32</v>
-      </c>
-      <c r="F28" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G28" s="1">
-        <v>256</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.1874588830814724</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.16087296713298849</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.25698121265756119</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.75093132993915312</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>16</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G29" s="1">
-        <v>256</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.1844286861435743</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.1557143339001307</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.25426491632888232</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.75686079721842792</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
-        <v>16</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>256</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.12911850002925199</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.1500666551435631</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.2032470815993207</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.73873237174339046</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1">
-        <v>16</v>
-      </c>
-      <c r="F31" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G31" s="1">
-        <v>256</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.1282927037073108</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.14441508814641371</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.2048644737139822</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0.73825050595907349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>16</v>
-      </c>
-      <c r="F32" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G32" s="1">
-        <v>256</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.1124936063247251</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.14083633232155071</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.1980018766394562</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.73018728516817111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1">
-        <v>32</v>
-      </c>
-      <c r="F33" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G33" s="1">
-        <v>256</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.10557827461134731</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.14839178864950109</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.17674460391893501</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.71212591580777351</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>8</v>
-      </c>
-      <c r="F34" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G34" s="1">
-        <v>256</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I34" s="1">
-        <v>9.869651061228317E-2</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.1548451241851268</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.17717039810037111</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0.7129641127530113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>32</v>
-      </c>
-      <c r="F35" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G35" s="1">
-        <v>256</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I35" s="1">
-        <v>6.7231742243637024E-2</v>
-      </c>
-      <c r="J35" s="1">
-        <v>5.1060747978556198E-2</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.1397513609281115</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0.70252818914838255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>8</v>
-      </c>
-      <c r="F36" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G36" s="1">
-        <v>256</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I36" s="1">
-        <v>5.7946755938147611E-2</v>
-      </c>
-      <c r="J36" s="1">
-        <v>4.4268265084393202E-2</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.11442421532533061</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.69844839217449961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3</v>
-      </c>
-      <c r="E37" s="1">
-        <v>16</v>
-      </c>
-      <c r="F37" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G37" s="1">
-        <v>256</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I37" s="1">
-        <v>5.1488959249715152E-2</v>
-      </c>
-      <c r="J37" s="1">
-        <v>3.8053255831449757E-2</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.11923545228247689</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0.67186141810505406</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1">
-        <v>32</v>
-      </c>
-      <c r="F38" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G38" s="1">
-        <v>256</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I38" s="1">
-        <v>4.7154556032643527E-2</v>
-      </c>
-      <c r="J38" s="1">
-        <v>3.7057140887786048E-2</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.1045447606821889</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0.68958206174306913</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>16</v>
-      </c>
-      <c r="F39" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G39" s="1">
-        <v>256</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I39" s="1">
-        <v>3.4363234836030272E-2</v>
-      </c>
-      <c r="J39" s="1">
-        <v>2.510680671114281E-2</v>
-      </c>
-      <c r="K39" s="1">
-        <v>7.8962076711992873E-2</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0.62864770892834965</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>16</v>
-      </c>
-      <c r="F40" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>256</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I40" s="1">
-        <v>3.038693928927981E-2</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2.4915874050884669E-2</v>
-      </c>
-      <c r="K40" s="1">
-        <v>7.2121918004156405E-2</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0.65604420315461465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>32</v>
-      </c>
-      <c r="F41" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G41" s="1">
-        <v>256</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1.1709601873536301E-2</v>
-      </c>
-      <c r="J41" s="1">
-        <v>8.1766148814390836E-3</v>
-      </c>
-      <c r="K41" s="1">
-        <v>2.0618556701030931E-2</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0.59828635291195831</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
-        <v>32</v>
-      </c>
-      <c r="F42" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G42" s="1">
-        <v>256</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I42" s="1">
-        <v>3.4210917745054292E-3</v>
-      </c>
-      <c r="J42" s="1">
-        <v>2.5327607091729979E-3</v>
-      </c>
-      <c r="K42" s="1">
-        <v>5.2691867124856811E-3</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0.5929156835961753</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>16</v>
-      </c>
-      <c r="F43" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G43" s="1">
-        <v>256</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1.4592453616843861E-3</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1.3386880856760381E-3</v>
-      </c>
-      <c r="K43" s="1">
-        <v>1.603665521191295E-3</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0.59487937293199267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="1">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1">
-        <v>32</v>
-      </c>
-      <c r="F44" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G44" s="1">
-        <v>256</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0.58543480355938193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>32</v>
-      </c>
-      <c r="F45" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G45" s="1">
-        <v>256</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0.58334671849400876</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>32</v>
-      </c>
-      <c r="F46" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G46" s="1">
-        <v>256</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.58440682321950588</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1">
-        <v>32</v>
-      </c>
-      <c r="F47" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G47" s="1">
-        <v>256</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0.58334671849400876</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>32</v>
-      </c>
-      <c r="F48" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G48" s="1">
-        <v>256</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0.5870731472260593</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>16</v>
-      </c>
-      <c r="F49" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G49" s="1">
-        <v>256</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0.58334671849400876</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1">
-        <v>32</v>
-      </c>
-      <c r="F50" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G50" s="1">
-        <v>256</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0.58334671849400876</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>16</v>
-      </c>
-      <c r="F51" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G51" s="1">
-        <v>256</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0.5702222774121446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1">
-        <v>32</v>
-      </c>
-      <c r="F52" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G52" s="1">
-        <v>256</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0.57798336023842045</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>32</v>
-      </c>
-      <c r="F53" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G53" s="1">
-        <v>256</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0.57019123308083941</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>32</v>
-      </c>
-      <c r="F54" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G54" s="1">
-        <v>256</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0.57019123308083941</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="1">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1">
-        <v>32</v>
-      </c>
-      <c r="F55" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G55" s="1">
-        <v>256</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0.57019123308083941</v>
+      <c r="G55" s="7">
+        <v>256</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I55" s="7">
+        <v>3.8268231784361249E-2</v>
+      </c>
+      <c r="J55" s="7">
+        <v>3.0063731378948019E-2</v>
+      </c>
+      <c r="K55" s="7">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.57121089620001242</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="uncased"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
     <sortCondition descending="1" ref="I1:I55"/>
   </sortState>
@@ -7009,7 +7004,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
